--- a/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.5_Pro_Python.xlsx
+++ b/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.5_Pro_Python.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Analysis\QuixBugs_Gemini-APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDB30BF6-FC74-4602-A233-728388B6FDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C1D0F3-C20A-40B6-852E-6BECCA010B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{2DEA1B1D-73B6-4EF6-9369-35D9CA214E0F}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{2DEA1B1D-73B6-4EF6-9369-35D9CA214E0F}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_one_shot_Gemini_1.5_Pro_Pyt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="282">
   <si>
     <t>File Name</t>
   </si>
@@ -3980,6 +3993,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>collected 9 items
+test_lcs_length.py .........                                                                         [100%]
+============================================ 9 passed in 0.05s ============================================</t>
+  </si>
+  <si>
+    <t>collected 6 items
+test_max_sublist_sum.py ......                                                                       [100%] 
+============================================ 6 passed in 0.04s ============================================</t>
+  </si>
+  <si>
+    <t>.====================================== 13 failed, 1 passed in 19.33s ======================================</t>
+  </si>
+  <si>
+    <t>collected 6 items                                                                                           
+test_rpn_eval.py ......                                                                              [100%]
+============================================ 6 passed in 0.03s ============================================</t>
   </si>
 </sst>
 </file>
@@ -4481,7 +4512,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4497,6 +4528,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4873,17 +4907,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF99E9AA-3F4D-4ACA-BEEE-5CF94747CF93}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B41" zoomScale="96" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:E45"/>
+    <sheetView tabSelected="1" topLeftCell="F23" zoomScale="67" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="8" width="89.31640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="66.953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="89.31640625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="45.54296875" style="1" customWidth="1"/>
+    <col min="4" max="8" width="42.1328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.86328125" style="1" customWidth="1"/>
     <col min="10" max="10" width="49.08984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="33.40625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="44.25" x14ac:dyDescent="0.75">
@@ -5377,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A17" s="1" t="s">
         <v>75</v>
       </c>
@@ -5406,10 +5443,13 @@
         <v>249</v>
       </c>
       <c r="J17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>278</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A18" s="1" t="s">
         <v>80</v>
       </c>
@@ -5441,7 +5481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A19" s="1" t="s">
         <v>85</v>
       </c>
@@ -5470,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -5499,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A21" s="1" t="s">
         <v>93</v>
       </c>
@@ -5528,10 +5568,13 @@
         <v>253</v>
       </c>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>279</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A22" s="1" t="s">
         <v>98</v>
       </c>
@@ -5559,8 +5602,11 @@
       <c r="J22" s="5" t="b">
         <v>0</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>280</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A23" s="1" t="s">
         <v>102</v>
       </c>
@@ -5589,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A24" s="1" t="s">
         <v>106</v>
       </c>
@@ -5618,7 +5664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A25" s="1" t="s">
         <v>110</v>
       </c>
@@ -5650,7 +5696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A26" s="2" t="s">
         <v>115</v>
       </c>
@@ -5678,7 +5724,7 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A27" s="1" t="s">
         <v>120</v>
       </c>
@@ -5707,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A28" s="1" t="s">
         <v>124</v>
       </c>
@@ -5736,7 +5782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A29" s="1" t="s">
         <v>128</v>
       </c>
@@ -5768,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A30" s="1" t="s">
         <v>133</v>
       </c>
@@ -5800,7 +5846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A31" s="1" t="s">
         <v>138</v>
       </c>
@@ -5829,7 +5875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:11" ht="409.5" x14ac:dyDescent="0.75">
       <c r="A32" s="1" t="s">
         <v>142</v>
       </c>
@@ -5855,7 +5901,10 @@
         <v>263</v>
       </c>
       <c r="J32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="K32" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -6180,7 +6229,7 @@
       </c>
       <c r="J43" s="1">
         <f>COUNTIF(J2:J42,TRUE)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.75">
@@ -6200,7 +6249,7 @@
       </c>
       <c r="J44" s="1">
         <f>COUNTIF(J2:J42,FALSE)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.75">
@@ -6220,7 +6269,7 @@
       </c>
       <c r="J45" s="1">
         <f>J43/(J43+J44)*100</f>
-        <v>87.5</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
